--- a/natmiOut/OldD0/LR-pairs_lrc2p/Col4a6-Cd93.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Col4a6-Cd93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Cd93</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.9602606319456231</v>
+        <v>0.03106633333333333</v>
       </c>
       <c r="H2">
-        <v>0.9602606319456231</v>
+        <v>0.093199</v>
       </c>
       <c r="I2">
-        <v>0.2945138801935995</v>
+        <v>0.009330498513261214</v>
       </c>
       <c r="J2">
-        <v>0.2945138801935995</v>
+        <v>0.009330498513261214</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>81.32054952176139</v>
+        <v>124.722578</v>
       </c>
       <c r="N2">
-        <v>81.32054952176139</v>
+        <v>374.167734</v>
       </c>
       <c r="O2">
-        <v>0.9677838600975293</v>
+        <v>0.9767311432246923</v>
       </c>
       <c r="P2">
-        <v>0.9677838600975293</v>
+        <v>0.9767311432246923</v>
       </c>
       <c r="Q2">
-        <v>78.08892227393193</v>
+        <v>3.874673182340667</v>
       </c>
       <c r="R2">
-        <v>78.08892227393193</v>
+        <v>34.872058641066</v>
       </c>
       <c r="S2">
-        <v>0.285025779826063</v>
+        <v>0.009113388479713918</v>
       </c>
       <c r="T2">
-        <v>0.285025779826063</v>
+        <v>0.009113388479713918</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -593,111 +593,111 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.9602606319456231</v>
+        <v>0.03106633333333333</v>
       </c>
       <c r="H3">
-        <v>0.9602606319456231</v>
+        <v>0.093199</v>
       </c>
       <c r="I3">
-        <v>0.2945138801935995</v>
+        <v>0.009330498513261214</v>
       </c>
       <c r="J3">
-        <v>0.2945138801935995</v>
+        <v>0.009330498513261214</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>2.70704473215213</v>
+        <v>0.134712</v>
       </c>
       <c r="N3">
-        <v>2.70704473215213</v>
+        <v>0.404136</v>
       </c>
       <c r="O3">
-        <v>0.0322161399024708</v>
+        <v>0.001054960600366076</v>
       </c>
       <c r="P3">
-        <v>0.0322161399024708</v>
+        <v>0.001054960600366076</v>
       </c>
       <c r="Q3">
-        <v>2.599468485201474</v>
+        <v>0.004185007896</v>
       </c>
       <c r="R3">
-        <v>2.599468485201474</v>
+        <v>0.037665071064</v>
       </c>
       <c r="S3">
-        <v>0.009488100367536528</v>
+        <v>9.84330831326483E-06</v>
       </c>
       <c r="T3">
-        <v>0.009488100367536528</v>
+        <v>9.84330831326483E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>2.30023300358148</v>
+        <v>0.03106633333333333</v>
       </c>
       <c r="H4">
-        <v>2.30023300358148</v>
+        <v>0.093199</v>
       </c>
       <c r="I4">
-        <v>0.7054861198064004</v>
+        <v>0.009330498513261214</v>
       </c>
       <c r="J4">
-        <v>0.7054861198064004</v>
+        <v>0.009330498513261214</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>81.32054952176139</v>
+        <v>2.836578333333333</v>
       </c>
       <c r="N4">
-        <v>81.32054952176139</v>
+        <v>8.509734999999999</v>
       </c>
       <c r="O4">
-        <v>0.9677838600975293</v>
+        <v>0.02221389617494163</v>
       </c>
       <c r="P4">
-        <v>0.9677838600975293</v>
+        <v>0.02221389617494163</v>
       </c>
       <c r="Q4">
-        <v>187.0562118793377</v>
+        <v>0.08812208802944445</v>
       </c>
       <c r="R4">
-        <v>187.0562118793377</v>
+        <v>0.7930987922649999</v>
       </c>
       <c r="S4">
-        <v>0.6827580802714662</v>
+        <v>0.0002072667252340318</v>
       </c>
       <c r="T4">
-        <v>0.6827580802714662</v>
+        <v>0.0002072667252340318</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,371 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.9795656666666667</v>
+      </c>
+      <c r="H5">
+        <v>2.938697</v>
+      </c>
+      <c r="I5">
+        <v>0.2942038861943281</v>
+      </c>
+      <c r="J5">
+        <v>0.2942038861943281</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>124.722578</v>
+      </c>
+      <c r="N5">
+        <v>374.167734</v>
+      </c>
+      <c r="O5">
+        <v>0.9767311432246923</v>
+      </c>
+      <c r="P5">
+        <v>0.9767311432246923</v>
+      </c>
+      <c r="Q5">
+        <v>122.1739552669553</v>
+      </c>
+      <c r="R5">
+        <v>1099.565597402598</v>
+      </c>
+      <c r="S5">
+        <v>0.2873580981037334</v>
+      </c>
+      <c r="T5">
+        <v>0.2873580981037334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.9795656666666667</v>
+      </c>
+      <c r="H6">
+        <v>2.938697</v>
+      </c>
+      <c r="I6">
+        <v>0.2942038861943281</v>
+      </c>
+      <c r="J6">
+        <v>0.2942038861943281</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.134712</v>
+      </c>
+      <c r="N6">
+        <v>0.404136</v>
+      </c>
+      <c r="O6">
+        <v>0.001054960600366076</v>
+      </c>
+      <c r="P6">
+        <v>0.001054960600366076</v>
+      </c>
+      <c r="Q6">
+        <v>0.131959250088</v>
+      </c>
+      <c r="R6">
+        <v>1.187633250792</v>
+      </c>
+      <c r="S6">
+        <v>0.0003103735084096011</v>
+      </c>
+      <c r="T6">
+        <v>0.0003103735084096011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.9795656666666667</v>
+      </c>
+      <c r="H7">
+        <v>2.938697</v>
+      </c>
+      <c r="I7">
+        <v>0.2942038861943281</v>
+      </c>
+      <c r="J7">
+        <v>0.2942038861943281</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.836578333333333</v>
+      </c>
+      <c r="N7">
+        <v>8.509734999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.02221389617494163</v>
+      </c>
+      <c r="P7">
+        <v>0.02221389617494163</v>
+      </c>
+      <c r="Q7">
+        <v>2.778614746143889</v>
+      </c>
+      <c r="R7">
+        <v>25.007532715295</v>
+      </c>
+      <c r="S7">
+        <v>0.006535414582185148</v>
+      </c>
+      <c r="T7">
+        <v>0.006535414582185148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.318915</v>
+      </c>
+      <c r="H8">
+        <v>6.956745</v>
+      </c>
+      <c r="I8">
+        <v>0.6964656152924107</v>
+      </c>
+      <c r="J8">
+        <v>0.6964656152924107</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>124.722578</v>
+      </c>
+      <c r="N8">
+        <v>374.167734</v>
+      </c>
+      <c r="O8">
+        <v>0.9767311432246923</v>
+      </c>
+      <c r="P8">
+        <v>0.9767311432246923</v>
+      </c>
+      <c r="Q8">
+        <v>289.22105696287</v>
+      </c>
+      <c r="R8">
+        <v>2602.98951266583</v>
+      </c>
+      <c r="S8">
+        <v>0.6802596566412451</v>
+      </c>
+      <c r="T8">
+        <v>0.6802596566412451</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>2.30023300358148</v>
-      </c>
-      <c r="H5">
-        <v>2.30023300358148</v>
-      </c>
-      <c r="I5">
-        <v>0.7054861198064004</v>
-      </c>
-      <c r="J5">
-        <v>0.7054861198064004</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>2.70704473215213</v>
-      </c>
-      <c r="N5">
-        <v>2.70704473215213</v>
-      </c>
-      <c r="O5">
-        <v>0.0322161399024708</v>
-      </c>
-      <c r="P5">
-        <v>0.0322161399024708</v>
-      </c>
-      <c r="Q5">
-        <v>6.226833635067717</v>
-      </c>
-      <c r="R5">
-        <v>6.226833635067717</v>
-      </c>
-      <c r="S5">
-        <v>0.02272803953493428</v>
-      </c>
-      <c r="T5">
-        <v>0.02272803953493428</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.318915</v>
+      </c>
+      <c r="H9">
+        <v>6.956745</v>
+      </c>
+      <c r="I9">
+        <v>0.6964656152924107</v>
+      </c>
+      <c r="J9">
+        <v>0.6964656152924107</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.134712</v>
+      </c>
+      <c r="N9">
+        <v>0.404136</v>
+      </c>
+      <c r="O9">
+        <v>0.001054960600366076</v>
+      </c>
+      <c r="P9">
+        <v>0.001054960600366076</v>
+      </c>
+      <c r="Q9">
+        <v>0.31238567748</v>
+      </c>
+      <c r="R9">
+        <v>2.81147109732</v>
+      </c>
+      <c r="S9">
+        <v>0.0007347437836432102</v>
+      </c>
+      <c r="T9">
+        <v>0.0007347437836432102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.318915</v>
+      </c>
+      <c r="H10">
+        <v>6.956745</v>
+      </c>
+      <c r="I10">
+        <v>0.6964656152924107</v>
+      </c>
+      <c r="J10">
+        <v>0.6964656152924107</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.836578333333333</v>
+      </c>
+      <c r="N10">
+        <v>8.509734999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.02221389617494163</v>
+      </c>
+      <c r="P10">
+        <v>0.02221389617494163</v>
+      </c>
+      <c r="Q10">
+        <v>6.577784045841667</v>
+      </c>
+      <c r="R10">
+        <v>59.20005641257499</v>
+      </c>
+      <c r="S10">
+        <v>0.01547121486752245</v>
+      </c>
+      <c r="T10">
+        <v>0.01547121486752245</v>
       </c>
     </row>
   </sheetData>
